--- a/excel.xlsx
+++ b/excel.xlsx
@@ -331,15 +331,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M1" sqref="M1:X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -349,8 +349,71 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -360,8 +423,71 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -371,8 +497,71 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -382,8 +571,71 @@
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -393,8 +645,71 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -404,8 +719,71 @@
       <c r="C6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -415,8 +793,71 @@
       <c r="C7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -426,8 +867,71 @@
       <c r="C8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -437,8 +941,71 @@
       <c r="C9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -448,8 +1015,71 @@
       <c r="C10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -459,8 +1089,71 @@
       <c r="C11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+      <c r="R11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <v>11</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>11</v>
+      </c>
+      <c r="X11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -470,8 +1163,71 @@
       <c r="C12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <v>12</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -481,8 +1237,71 @@
       <c r="C13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>13</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>13</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>13</v>
+      </c>
+      <c r="U13">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>13</v>
+      </c>
+      <c r="W13">
+        <v>13</v>
+      </c>
+      <c r="X13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -492,8 +1311,71 @@
       <c r="C14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <v>14</v>
+      </c>
+      <c r="S14">
+        <v>14</v>
+      </c>
+      <c r="T14">
+        <v>14</v>
+      </c>
+      <c r="U14">
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <v>14</v>
+      </c>
+      <c r="W14">
+        <v>14</v>
+      </c>
+      <c r="X14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -503,8 +1385,71 @@
       <c r="C15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+      <c r="R15">
+        <v>15</v>
+      </c>
+      <c r="S15">
+        <v>15</v>
+      </c>
+      <c r="T15">
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <v>15</v>
+      </c>
+      <c r="V15">
+        <v>15</v>
+      </c>
+      <c r="W15">
+        <v>15</v>
+      </c>
+      <c r="X15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -514,8 +1459,71 @@
       <c r="C16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>16</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>16</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="S16">
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>16</v>
+      </c>
+      <c r="V16">
+        <v>16</v>
+      </c>
+      <c r="W16">
+        <v>16</v>
+      </c>
+      <c r="X16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -525,8 +1533,71 @@
       <c r="C17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>17</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>17</v>
+      </c>
+      <c r="Q17">
+        <v>17</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+      <c r="S17">
+        <v>17</v>
+      </c>
+      <c r="T17">
+        <v>17</v>
+      </c>
+      <c r="U17">
+        <v>17</v>
+      </c>
+      <c r="V17">
+        <v>17</v>
+      </c>
+      <c r="W17">
+        <v>17</v>
+      </c>
+      <c r="X17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -536,8 +1607,71 @@
       <c r="C18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <v>18</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+      <c r="S18">
+        <v>18</v>
+      </c>
+      <c r="T18">
+        <v>18</v>
+      </c>
+      <c r="U18">
+        <v>18</v>
+      </c>
+      <c r="V18">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>18</v>
+      </c>
+      <c r="X18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -547,8 +1681,71 @@
       <c r="C19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>19</v>
+      </c>
+      <c r="O19">
+        <v>19</v>
+      </c>
+      <c r="P19">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+      <c r="R19">
+        <v>19</v>
+      </c>
+      <c r="S19">
+        <v>19</v>
+      </c>
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>19</v>
+      </c>
+      <c r="V19">
+        <v>19</v>
+      </c>
+      <c r="W19">
+        <v>19</v>
+      </c>
+      <c r="X19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -558,8 +1755,71 @@
       <c r="C20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>20</v>
+      </c>
+      <c r="T20">
+        <v>20</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+      <c r="W20">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
@@ -569,8 +1829,71 @@
       <c r="C21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>21</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>21</v>
+      </c>
+      <c r="N21">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>21</v>
+      </c>
+      <c r="P21">
+        <v>21</v>
+      </c>
+      <c r="Q21">
+        <v>21</v>
+      </c>
+      <c r="R21">
+        <v>21</v>
+      </c>
+      <c r="S21">
+        <v>21</v>
+      </c>
+      <c r="T21">
+        <v>21</v>
+      </c>
+      <c r="U21">
+        <v>21</v>
+      </c>
+      <c r="V21">
+        <v>21</v>
+      </c>
+      <c r="W21">
+        <v>21</v>
+      </c>
+      <c r="X21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22</v>
       </c>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +17,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+  <si>
+    <t>skjhsdkjfhksjdhfsdfsdf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,8 +345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:X21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1907,4 +1919,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>